--- a/public/contact_group_2.xlsx
+++ b/public/contact_group_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="495" windowWidth="19440" windowHeight="11040" tabRatio="500"/>
+    <workbookView xWindow="32760" yWindow="500" windowWidth="19440" windowHeight="11040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="88">
   <si>
     <t>tel</t>
   </si>
@@ -224,6 +224,60 @@
   </si>
   <si>
     <t>380333333333</t>
+  </si>
+  <si>
+    <t>380333320798</t>
+  </si>
+  <si>
+    <t>380829844334</t>
+  </si>
+  <si>
+    <t>OOOO</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>380998051155</t>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+  </si>
+  <si>
+    <t>380676744668</t>
+  </si>
+  <si>
+    <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>380674112226</t>
+  </si>
+  <si>
+    <t>IIIIIIIIIIII</t>
+  </si>
+  <si>
+    <t>GGGGGGG</t>
+  </si>
+  <si>
+    <t>380887719911</t>
+  </si>
+  <si>
+    <t>KKKKKK</t>
+  </si>
+  <si>
+    <t>380229933555</t>
+  </si>
+  <si>
+    <t>SSSSS</t>
+  </si>
+  <si>
+    <t>380777787777</t>
+  </si>
+  <si>
+    <t>DDDDD</t>
+  </si>
+  <si>
+    <t>380553087654</t>
   </si>
 </sst>
 </file>
@@ -578,32 +632,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Data"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69140625" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.765625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -616,17 +670,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -639,17 +693,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -662,17 +716,17 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -685,17 +739,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -708,17 +762,17 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>28</v>
@@ -731,17 +785,17 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -754,17 +808,17 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>35</v>
@@ -777,17 +831,17 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
@@ -800,17 +854,17 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>45</v>
@@ -823,17 +877,17 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>44</v>
@@ -846,17 +900,17 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>50</v>
@@ -869,17 +923,17 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>51</v>
@@ -892,17 +946,17 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
@@ -915,17 +969,17 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
@@ -938,17 +992,17 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -961,17 +1015,17 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>15</v>
@@ -984,17 +1038,17 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>28</v>
@@ -1007,17 +1061,17 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -1030,17 +1084,17 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>35</v>
@@ -1053,17 +1107,17 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>29</v>
@@ -1076,17 +1130,17 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>45</v>
@@ -1099,17 +1153,17 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>44</v>
@@ -1122,17 +1176,17 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>50</v>
@@ -1145,17 +1199,17 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>51</v>
@@ -1164,6 +1218,213 @@
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>21</v>
       </c>
     </row>
